--- a/inputs.xlsx
+++ b/inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgaff\Desktop\FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C61B23-E610-4A73-9D24-CDFC98E517F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26458BD3-EA5E-4673-BC33-4B13C8253410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="821" activeTab="6" xr2:uid="{4DFD8DC1-95AD-4AFD-A6C9-A415FA3F9063}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="821" xr2:uid="{4DFD8DC1-95AD-4AFD-A6C9-A415FA3F9063}"/>
   </bookViews>
   <sheets>
     <sheet name="Quantities" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="52">
   <si>
     <t>Part Number</t>
   </si>
@@ -183,13 +183,22 @@
     <t>Operator</t>
   </si>
   <si>
-    <t>Chris, Matt</t>
-  </si>
-  <si>
     <t>Vendor Time per Lot (Business Days)</t>
   </si>
   <si>
-    <t>Gorge</t>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Marek</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>Bill</t>
   </si>
 </sst>
 </file>
@@ -257,7 +266,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -697,12 +706,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -838,6 +858,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1173,10 +1196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44E694F-08C1-44D2-AFCF-49DF9B6BAC6B}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1255,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C4" s="9">
         <v>200</v>
@@ -1556,6 +1579,9 @@
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
       <c r="F30" s="15"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1567,7 +1593,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="B2" sqref="B2:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1602,19 +1628,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C2" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D2" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E2" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F2" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1622,19 +1648,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C3" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D3" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E3" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F3" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1642,19 +1668,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C4" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D4" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E4" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F4" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1662,19 +1688,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C5" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D5" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E5" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F5" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1682,19 +1708,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C6" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D6" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E6" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F6" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1702,19 +1728,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C7" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D7" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E7" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F7" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1722,19 +1748,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C8" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D8" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E8" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F8" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1742,19 +1768,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C9" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D9" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E9" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F9" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1762,19 +1788,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C10" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D10" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E10" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F10" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1782,19 +1808,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C11" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D11" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E11" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F11" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1802,19 +1828,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C12" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D12" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E12" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F12" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1822,19 +1848,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C13" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D13" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E13" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F13" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1842,19 +1868,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C14" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D14" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E14" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F14" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1862,19 +1888,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C15" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D15" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E15" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F15" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1882,19 +1908,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C16" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D16" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E16" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F16" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1902,19 +1928,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C17" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D17" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E17" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F17" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1922,19 +1948,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C18" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D18" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F18" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1942,19 +1968,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C19" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D19" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F19" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1962,19 +1988,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C20" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D20" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F20" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1982,19 +2008,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C21" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D21" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F21" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2002,19 +2028,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C22" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D22" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F22" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2022,19 +2048,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C23" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D23" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F23" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2042,19 +2068,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C24" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D24" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F24" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2062,19 +2088,19 @@
         <v>29</v>
       </c>
       <c r="B25" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C25" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D25" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F25" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2082,19 +2108,19 @@
         <v>24</v>
       </c>
       <c r="B26" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C26" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D26" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F26" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2102,19 +2128,19 @@
         <v>25</v>
       </c>
       <c r="B27" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C27" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D27" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F27" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2122,19 +2148,19 @@
         <v>26</v>
       </c>
       <c r="B28" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C28" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D28" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F28" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2142,19 +2168,19 @@
         <v>27</v>
       </c>
       <c r="B29" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C29" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D29" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F29" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2162,19 +2188,19 @@
         <v>28</v>
       </c>
       <c r="B30" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C30" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D30" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F30" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2944,7 +2970,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2993,7 +3019,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="29">
-        <v>5000</v>
+        <v>50</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -4334,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4578,8 +4604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9074582E-5D9B-4B9A-894E-898817A1D63C}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4828,14 +4854,14 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="H2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -4867,25 +4893,25 @@
         <v>45</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="40">
-        <v>1</v>
-      </c>
-      <c r="D2" s="40">
-        <v>1</v>
-      </c>
-      <c r="E2" s="40">
-        <v>2</v>
-      </c>
-      <c r="F2" s="40">
-        <v>3</v>
-      </c>
-      <c r="G2" s="40">
-        <v>4</v>
+        <v>47</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>50</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
